--- a/data-raw/PredefinedMethods.xlsx
+++ b/data-raw/PredefinedMethods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -235,6 +235,75 @@
   </si>
   <si>
     <t>Elevation/m</t>
+  </si>
+  <si>
+    <t>Climate MAT/Celsius</t>
+  </si>
+  <si>
+    <t>Climate MAT</t>
+  </si>
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>Climate MDR</t>
+  </si>
+  <si>
+    <t>Climate MDR/Celsius</t>
+  </si>
+  <si>
+    <t>Mean diurnal range</t>
+  </si>
+  <si>
+    <t>Climate MAP</t>
+  </si>
+  <si>
+    <t>Mean annual temperature</t>
+  </si>
+  <si>
+    <t>Climate PDM</t>
+  </si>
+  <si>
+    <t>Precipitation of the driest month</t>
+  </si>
+  <si>
+    <t>Precipitation of the wettest month</t>
+  </si>
+  <si>
+    <t>Climate PWM</t>
+  </si>
+  <si>
+    <t>Climate TWM</t>
+  </si>
+  <si>
+    <t>Climate TWM/Celsius</t>
+  </si>
+  <si>
+    <t>Temperature of the warmest month</t>
+  </si>
+  <si>
+    <t>Climate TCM</t>
+  </si>
+  <si>
+    <t>Climate TCM/Celsius</t>
+  </si>
+  <si>
+    <t>Temperature of the coldest month</t>
+  </si>
+  <si>
+    <t>Climate PDM/mm</t>
+  </si>
+  <si>
+    <t>Climate PWM/mm</t>
+  </si>
+  <si>
+    <t>Climate MAP/mm</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Mean annual precipitation</t>
   </si>
 </sst>
 </file>
@@ -561,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1087,137 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
